--- a/docs/station4/バリデーション設計書.xlsx
+++ b/docs/station4/バリデーション設計書.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10980"/>
+    <workbookView windowWidth="28800" windowHeight="10980" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="ユーザー登録画面" sheetId="1" r:id="rId1"/>
+    <sheet name="プロフィール編集画面" sheetId="2" r:id="rId2"/>
+    <sheet name="旅程登録画面" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>項目</t>
   </si>
@@ -41,31 +43,106 @@
     <t>備考</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>・必須</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>follower_id</t>
-  </si>
-  <si>
-    <t>BIGINT UNSIGNED</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>followed_id</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>・必須
+・50文字以下
+・英数字のみ</t>
+  </si>
+  <si>
+    <t>「ユーザーIDを50文字以下で英数字のみで入力してください」</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>・必須
+・「@」の前後に文字がある
+・ドメインに「.」が含まれる</t>
+  </si>
+  <si>
+    <t>「有効なメールアドレスを入力してください」</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>・必須
+・8文字以上
+・英大文字 / 英小文字 / 数字 / 記号 のうち3種類以上
+・空白禁止
+・全角禁止</t>
+  </si>
+  <si>
+    <t>「パスワードは8文字以上で入力してください」
+「英大文字・英小文字・数字・記号のうち3種類以上を含めてください」
+「パスワードに空白は使用できません」
+「パスワードに全角文字は使用できません」</t>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>・任意
+・50文字以下</t>
+  </si>
+  <si>
+    <t>「ユーザー名は50文字以下で英数字のみで入力してください」</t>
+  </si>
+  <si>
+    <t>プロフィール写真</t>
+  </si>
+  <si>
+    <t>・任意
+・ファイル形式
+(jpg, jpeg, png, webp)</t>
+  </si>
+  <si>
+    <t>「jpg, jpeg, png, webp 形式の画像のみ使用できます」</t>
+  </si>
+  <si>
+    <t>自己紹介</t>
+  </si>
+  <si>
+    <t>・任意
+・最大1000文字</t>
+  </si>
+  <si>
+    <t>「自己紹介は1000文字以内で入力してください」</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+  </si>
+  <si>
+    <t>・必須
+・50文字以内</t>
+  </si>
+  <si>
+    <t>「タイトルを50文字以内で入力してください」</t>
+  </si>
+  <si>
+    <t>サブタイトル</t>
+  </si>
+  <si>
+    <t>・任意
+・50文字以内</t>
+  </si>
+  <si>
+    <t>「サブタイトルは1000文字以内で入力してください」</t>
+  </si>
+  <si>
+    <t>本文</t>
+  </si>
+  <si>
+    <t>・任意
+・1000文字以内</t>
+  </si>
+  <si>
+    <t>「本文は1000文字以内で入力してください」</t>
+  </si>
+  <si>
+    <t>写真</t>
   </si>
 </sst>
 </file>
@@ -704,14 +781,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1247,15 +1330,15 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.3076923076923" customWidth="1"/>
-    <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="17.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="29.4230769230769" customWidth="1"/>
+    <col min="3" max="3" width="70.7692307692308" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1273,51 +1356,207 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="51" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="51" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="135" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19.2307692307692" customWidth="1"/>
+    <col min="3" max="3" width="68.6153846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="51" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="51" spans="1:3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="34" spans="1:3">
+      <c r="A5" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="19.2307692307692" customWidth="1"/>
+    <col min="3" max="3" width="56.8461538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="34" spans="1:3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="34" spans="1:3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="1:3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/station4/バリデーション設計書.xlsx
+++ b/docs/station4/バリデーション設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10980" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー登録画面" sheetId="1" r:id="rId1"/>
@@ -47,11 +47,11 @@
   </si>
   <si>
     <t>・必須
-・50文字以下
+・8文字以上50文字以下
 ・英数字のみ</t>
   </si>
   <si>
-    <t>「ユーザーIDを50文字以下で英数字のみで入力してください」</t>
+    <t>「ユーザーIDを8文字以上50文字以下で英数字のみで入力してください」</t>
   </si>
   <si>
     <t>メールアドレス</t>
@@ -129,7 +129,7 @@
 ・50文字以内</t>
   </si>
   <si>
-    <t>「サブタイトルは1000文字以内で入力してください」</t>
+    <t>「サブタイトルは50文字以内で入力してください」</t>
   </si>
   <si>
     <t>本文</t>
@@ -1330,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" ht="135" spans="1:4">
+    <row r="4" ht="118" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1410,13 +1410,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="24.8846153846154" customWidth="1"/>
     <col min="3" max="3" width="68.6153846153846" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="51" spans="1:3">
+    <row r="2" ht="68" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/docs/station4/バリデーション設計書.xlsx
+++ b/docs/station4/バリデーション設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー登録画面" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>項目</t>
   </si>
@@ -70,9 +70,7 @@
   <si>
     <t>・必須
 ・8文字以上
-・英大文字 / 英小文字 / 数字 / 記号 のうち3種類以上
-・空白禁止
-・全角禁止</t>
+・英大文字 / 英小文字 / 数字 / 記号 のうち3種類以上</t>
   </si>
   <si>
     <t>「パスワードは8文字以上で入力してください」
@@ -95,6 +93,7 @@
   </si>
   <si>
     <t>・任意
+・2MB以内
 ・ファイル形式
 (jpg, jpeg, png, webp)</t>
   </si>
@@ -143,6 +142,11 @@
   </si>
   <si>
     <t>写真</t>
+  </si>
+  <si>
+    <t>・任意
+・ファイル形式
+(jpg, jpeg, png, webp)</t>
   </si>
 </sst>
 </file>
@@ -1330,8 +1334,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1409,8 +1413,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1434,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="68" spans="1:3">
+    <row r="2" ht="51" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="51" spans="1:3">
+    <row r="4" ht="68" spans="1:3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1489,7 +1493,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1552,7 +1556,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
